--- a/biology/Zoologie/Altella/Altella.xlsx
+++ b/biology/Zoologie/Altella/Altella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Altella est un genre d'araignées aranéomorphes de la famille des Dictynidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Altella est un genre d'araignées aranéomorphes de la famille des Dictynidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en écozone paléarctique occidentale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en écozone paléarctique occidentale.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 27/01/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 27/01/2024) :
 Altella aussereri Thaler, 1990
 Altella biuncata (Miller, 1949)
 Altella caspia Ponomarev, 2008
@@ -583,10 +599,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amphissa[2] O. Pickard-Cambridge, 1882 préoccupé par Amphissa Adams &amp; Adams, 1853 est remplacé par Altella par Simon en 1885[3].
-Altellela[4] a été placé en synonymie par Lehtinen en 1967[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amphissa O. Pickard-Cambridge, 1882 préoccupé par Amphissa Adams &amp; Adams, 1853 est remplacé par Altella par Simon en 1885.
+Altellela a été placé en synonymie par Lehtinen en 1967.
 </t>
         </is>
       </c>
@@ -615,7 +633,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1885 : « Arachnides nouveaux d'Algérie. » Bulletin de la Société Zoologique de France, vol. 9, p. 321-327 (texte intégral).
 O. Pickard-Cambridge, 1882 : « Notes on British spiders, with descriptions of three new species and characters of a new genus. » Annals and Magazine of Natural History, sér. 5, vol. 9, p. 1-17 (texte intégral).</t>
